--- a/PythonSeleniumPractice/Read_Write_DataformExcel/ExcelFiles/DemoExcel.xlsx
+++ b/PythonSeleniumPractice/Read_Write_DataformExcel/ExcelFiles/DemoExcel.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Videos\SQA\Python\pythonSQAProject\PythonSeleniumPractice\Read_Write_DataformExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Videos\SQA\Python\pythonSQAProject\PythonSeleniumPractice\Read_Write_DataformExcel\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B273D-222E-4E35-A208-73A7224E2FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C9B06-BF2E-458E-BF7E-444A659631B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -36,19 +31,22 @@
     <t>phone</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
     <t>test1@gmail.com</t>
   </si>
   <si>
+    <t>test1</t>
+  </si>
+  <si>
     <t>test2@gmail.com</t>
   </si>
   <si>
+    <t>test2</t>
+  </si>
+  <si>
     <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
   </si>
   <si>
     <t>test3</t>
@@ -100,7 +98,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -394,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,10 +403,11 @@
     <col min="1" max="1" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,21 +417,24 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>1767921765</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -441,22 +443,52 @@
         <v>1767921755</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>1767921865</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{60FA815F-49A4-4D65-BF71-653561F0E80A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{EFBC64E0-C7CF-4358-8E29-1038749936A7}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{5AFBDFA6-B8C3-4459-AF90-05521C076E17}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
